--- a/CHANTIERS_ITB77/1/1.xlsx
+++ b/CHANTIERS_ITB77/1/1.xlsx
@@ -10,6 +10,7 @@
     <sheet name="Données" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="Feuil1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="Beton" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Previsionnel" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -604,4 +605,47 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Designation</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Prevu (m3)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Fondation</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/CHANTIERS_ITB77/1/1.xlsx
+++ b/CHANTIERS_ITB77/1/1.xlsx
@@ -613,7 +613,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -639,10 +639,18 @@
           <t>Fondation</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>50</t>
-        </is>
+      <c r="B2" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Dalle basse</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>650</v>
       </c>
     </row>
   </sheetData>

--- a/CHANTIERS_ITB77/1/1.xlsx
+++ b/CHANTIERS_ITB77/1/1.xlsx
@@ -613,7 +613,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -632,6 +632,11 @@
           <t>Prevu (m3)</t>
         </is>
       </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Zone</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -642,6 +647,11 @@
       <c r="B2" t="n">
         <v>50</v>
       </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>INFRA</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -651,6 +661,26 @@
       </c>
       <c r="B3" t="n">
         <v>650</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>INFRA</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Voile BAT A </t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>10</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>SUPER</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/CHANTIERS_ITB77/1/1.xlsx
+++ b/CHANTIERS_ITB77/1/1.xlsx
@@ -613,7 +613,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -683,6 +683,21 @@
         </is>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Voile BAT A </t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>15</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>INFRA</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/CHANTIERS_ITB77/1/1.xlsx
+++ b/CHANTIERS_ITB77/1/1.xlsx
@@ -613,7 +613,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -698,6 +698,21 @@
         </is>
       </c>
     </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Voiles</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>50</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>SUPER</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/CHANTIERS_ITB77/1/1.xlsx
+++ b/CHANTIERS_ITB77/1/1.xlsx
@@ -613,7 +613,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -668,51 +668,6 @@
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Voile BAT A </t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>10</v>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>SUPER</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Voile BAT A </t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>15</v>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>INFRA</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Voiles</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>50</v>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>SUPER</t>
-        </is>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/CHANTIERS_ITB77/1/1.xlsx
+++ b/CHANTIERS_ITB77/1/1.xlsx
@@ -613,7 +613,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -668,6 +668,21 @@
         </is>
       </c>
     </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Voile </t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>50</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>SUPER</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/CHANTIERS_ITB77/1/1.xlsx
+++ b/CHANTIERS_ITB77/1/1.xlsx
@@ -645,7 +645,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>

--- a/CHANTIERS_ITB77/1/1.xlsx
+++ b/CHANTIERS_ITB77/1/1.xlsx
@@ -645,7 +645,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>

--- a/CHANTIERS_ITB77/1/1.xlsx
+++ b/CHANTIERS_ITB77/1/1.xlsx
@@ -492,7 +492,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -600,6 +600,506 @@
       <c r="C6" t="inlineStr"/>
       <c r="D6" t="n">
         <v>7.5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Unibeton</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Gros Beton</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>fondations</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>u</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>u</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>u</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>u</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>C 25/30 CP3</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>u</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>37.5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>u</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>C 30/37 CP3</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>u</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>u</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Gros Beton</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>u</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>u</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>C 30/37</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>u</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>22.5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>u</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>G. B.</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>u</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>u</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>C 30/37</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>u</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>22.5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>u</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>G. B.</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>u</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>u</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>C 25/30</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>u</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>u</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>C 30/37</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>longrine</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>22.5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>u</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>G. B.</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>fondation</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>22.5</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>u</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>C 30/37</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>longrine</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>u</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>G. B.</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>fondation</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>u</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>C 25/30</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>seuilles</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>u</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>C 30/37</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>longrine</t>
+        </is>
+      </c>
+      <c r="D22" t="n">
+        <v>22.5</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>u</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>G. B.</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>fondation</t>
+        </is>
+      </c>
+      <c r="D23" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>u</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>C 25/30</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>seuilles</t>
+        </is>
+      </c>
+      <c r="D24" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>u</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>C 30/37</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>longrines</t>
+        </is>
+      </c>
+      <c r="D25" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>u</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>G. B.</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>fondation</t>
+        </is>
+      </c>
+      <c r="D26" t="n">
+        <v>22.5</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>u</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>C 25/30</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>seuilles</t>
+        </is>
+      </c>
+      <c r="D27" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>u</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>C 30/37</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>longrines</t>
+        </is>
+      </c>
+      <c r="D28" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>u</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>G. B.</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>fondation</t>
+        </is>
+      </c>
+      <c r="D29" t="n">
+        <v>22.5</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>u</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>C 30/37</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>seuilles</t>
+        </is>
+      </c>
+      <c r="D30" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>u</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>u</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Dalles</t>
+        </is>
+      </c>
+      <c r="D31" t="n">
+        <v>44</v>
       </c>
     </row>
   </sheetData>
